--- a/biology/Zoologie/Friedrich_August_von_Gebler/Friedrich_August_von_Gebler.xlsx
+++ b/biology/Zoologie/Friedrich_August_von_Gebler/Friedrich_August_von_Gebler.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Friedrich August von Gebler, né le 15 décembre 1781 à Zeulenroda (Thuringe) et mort le 9 mars 1850 à Barnaoul (Empire russe), est un géographe allemand qui fut au service de l'Empire russe et membre-correspondant de l'Académie impériale des sciences de Russie.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Gebler descend d'une famille de hauts fonctionnaires à la cour de Prusse et à la cour d'Autriche. Il suit d'abord une instruction à domicile, puis au lycée et enfin entre à seize ans à l'université d'Iéna, où il étudie la médecine et les sciences naturelles. Il obtient son doctorat de médecine et de chirurgie en 1802. Ayant appris par les gazettes que le gouvernement russe avait besoin de spécialistes étrangers, il décide de quitter la Saxe et arrive en 1809 à Saint-Pétersbourg. Il part la même année pour Barnaoul au sud-ouest de la Sibérie dans l'Altaï, pour un contrat de six ans.
 Il est nommé en février 1810 médecin de l'hôpital central de Barnaoul, mais à la fin de son contrat, il décide de demeurer à Barnaoul et de ne pas rentrer en Allemagne. Entre-temps, il s'était marié avec une Russe (Alexandra Stepanovna Zoubareva) et a déjà ses cinq enfants (quatre fils et une fille) en 1818. Il devient médecin-en-chef et pharmacien-en-chef du district en 1820, ainsi qu'inspecteur de médecine des mines de Kolivano-Voskressensk en 1828, poste qu'il occupe jusqu'à sa retraite en 1849, où il atteint le rang de conseiller d'État.
@@ -546,7 +560,9 @@
           <t>Hommage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le glacier Gebler, le plus grand glacier sur le mont Béloukha, dans l'Altaï, est baptisé de son nom, ainsi qu'une rue de la ville de Barnaoul.
 </t>
@@ -577,7 +593,9 @@
           <t>Travaux publiés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(de + la) Catalogus Coleopterorum Sibiriae occidentalis et confinis Tartariae et Additamenta à cette publication (1830 et 1833);
 (ru) Exposé sur les monts Katoun (1836)
